--- a/preparatorios/tables/5.Socioeconómica/cuadros_pedido59.xlsx
+++ b/preparatorios/tables/5.Socioeconómica/cuadros_pedido59.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unhcr365-my.sharepoint.com/personal/martnez_unhcr_org/Documents/Desktop/AYELEN/ENMA/ENMA_repositorio/enma2023/tables/5.Socioeconómica/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unhcr365-my.sharepoint.com/personal/martnez_unhcr_org/Documents/Documents/Desktop/AYELEN/ENMA/ENMA_2023/enma2023/preparatorios/tables/5.Socioeconómica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_AA47664EEE183AC1C4FF8C71A108B456FAF57ABD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D7DC4FB-1C70-4053-BE7F-2A84C444AD5C}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_AA47664EEE183AC1C4FF8C71A108B456FAF57ABD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0234C086-A868-48AC-A937-908F104EA780}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="univariado_agrup" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="region" sheetId="12" r:id="rId12"/>
     <sheet name="MERCOSUR" sheetId="13" r:id="rId13"/>
     <sheet name="nacionalidad" sheetId="14" r:id="rId14"/>
-    <sheet name="dni" r:id="rId18" sheetId="15"/>
+    <sheet name="dni" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -356,7 +356,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -386,8 +385,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -704,32 +704,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -751,26 +751,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>4679.0455901770001</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>2129.0821899080001</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1198.8580766790001</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1060.5530934989999</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>424.51043076299999</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>394.76890911800001</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>1226.8647145299999</v>
       </c>
       <c r="H2">
@@ -805,9 +805,9 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -851,7 +851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -895,7 +895,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -939,7 +939,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -983,7 +983,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -1040,9 +1040,9 @@
       <selection sqref="A1:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>65</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -1231,9 +1231,9 @@
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>45.6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -1642,9 +1642,9 @@
       <selection sqref="A1:P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -1873,13 +1873,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>82</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>47.8</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>41.1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>56.2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>93</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>94</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>96</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>98</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>99</v>
       </c>
@@ -2677,14 +2677,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -2728,96 +2728,96 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
-      <c r="B2" t="n">
-        <v>327.109984657</v>
-      </c>
-      <c r="C2" t="n">
-        <v>170.93032369</v>
-      </c>
-      <c r="D2" t="n">
-        <v>96.321035953</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="B2">
+        <v>327.10998465699998</v>
+      </c>
+      <c r="C2">
+        <v>170.93032368999999</v>
+      </c>
+      <c r="D2">
+        <v>96.321035953000006</v>
+      </c>
+      <c r="E2">
         <v>29.010425202</v>
       </c>
-      <c r="F2" t="n">
-        <v>30.097164674</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="F2">
+        <v>30.097164673999998</v>
+      </c>
+      <c r="G2">
         <v>27.254302750000004</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>83.954009864</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>52.3</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>29.4</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>8.9</v>
       </c>
-      <c r="L2" t="n">
-        <v>9.2</v>
-      </c>
-      <c r="M2" t="n">
-        <v>8.3</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="L2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="N2">
         <v>25.7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
-      <c r="B3" t="n">
-        <v>4351.93560552</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3">
+        <v>4351.9356055199996</v>
+      </c>
+      <c r="C3">
         <v>1958.1518662180001</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>1102.537040726</v>
       </c>
-      <c r="E3" t="n">
-        <v>1031.542668297</v>
-      </c>
-      <c r="F3" t="n">
-        <v>394.413266089</v>
-      </c>
-      <c r="G3" t="n">
-        <v>367.514606368</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1142.910704666</v>
-      </c>
-      <c r="I3" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="E3">
+        <v>1031.5426682970001</v>
+      </c>
+      <c r="F3">
+        <v>394.41326608899999</v>
+      </c>
+      <c r="G3">
+        <v>367.51460636799999</v>
+      </c>
+      <c r="H3">
+        <v>1142.9107046659999</v>
+      </c>
+      <c r="I3">
+        <v>45</v>
+      </c>
+      <c r="J3">
         <v>25.3</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>23.7</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>9.1</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>8.4</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>26.3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2829,9 +2829,9 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>45.036527718091961</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>24.108293940696175</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>6.6824237215298661</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>6.3601203266007742</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>24.60249247958745</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>7.4129780833691443</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>10.829394069617534</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>12.806188225182638</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>22.733132788998709</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>6.6179630425440479</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -3012,9 +3012,9 @@
       <selection sqref="A1:N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -3203,9 +3203,9 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -3438,9 +3438,9 @@
       <selection sqref="A1:N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -3761,9 +3761,9 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -3952,12 +3952,12 @@
       <selection sqref="A1:N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.08984375" collapsed="true"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -4190,9 +4190,9 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4513,9 +4513,9 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
